--- a/data/pca/factorExposure/factorExposure_2017-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02025013873194508</v>
+        <v>0.01010177653150344</v>
       </c>
       <c r="C2">
-        <v>0.01255381857523476</v>
+        <v>-0.04269122406902632</v>
       </c>
       <c r="D2">
-        <v>-0.03594219208208568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02944285815144138</v>
+      </c>
+      <c r="E2">
+        <v>-0.03669507556797192</v>
+      </c>
+      <c r="F2">
+        <v>0.00920670034325829</v>
+      </c>
+      <c r="G2">
+        <v>0.09571824184696558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01946964934400812</v>
+        <v>0.04137161029566488</v>
       </c>
       <c r="C3">
-        <v>-0.009995815975082764</v>
+        <v>-0.1020232102132836</v>
       </c>
       <c r="D3">
-        <v>-0.1064135773679698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01796715646995675</v>
+      </c>
+      <c r="E3">
+        <v>-0.1014762828218387</v>
+      </c>
+      <c r="F3">
+        <v>0.004358083439143207</v>
+      </c>
+      <c r="G3">
+        <v>0.1687872418416887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02418827363757187</v>
+        <v>0.05641825802521003</v>
       </c>
       <c r="C4">
-        <v>0.004964631232472141</v>
+        <v>-0.06797220077858733</v>
       </c>
       <c r="D4">
-        <v>-0.0843456676867668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02443089073463516</v>
+      </c>
+      <c r="E4">
+        <v>-0.03188370500038314</v>
+      </c>
+      <c r="F4">
+        <v>0.0107714613620418</v>
+      </c>
+      <c r="G4">
+        <v>0.1013457184578986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01038804689564986</v>
+        <v>0.03664740283736785</v>
       </c>
       <c r="C6">
-        <v>0.01242810861807753</v>
+        <v>-0.05184734427107858</v>
       </c>
       <c r="D6">
-        <v>-0.08031966640450729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01707637084291911</v>
+      </c>
+      <c r="E6">
+        <v>-0.03654005704500193</v>
+      </c>
+      <c r="F6">
+        <v>0.00895920491775341</v>
+      </c>
+      <c r="G6">
+        <v>0.08299153646147203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.005966954177522541</v>
+        <v>0.02097994942910621</v>
       </c>
       <c r="C7">
-        <v>0.01177231728922571</v>
+        <v>-0.03965485691514165</v>
       </c>
       <c r="D7">
-        <v>-0.0337214264325102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01398833306588862</v>
+      </c>
+      <c r="E7">
+        <v>-0.006341484873141099</v>
+      </c>
+      <c r="F7">
+        <v>-0.003414885946522922</v>
+      </c>
+      <c r="G7">
+        <v>0.1212961853839031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001200143267127676</v>
+        <v>0.004111344064238436</v>
       </c>
       <c r="C8">
-        <v>-0.000340973507480336</v>
+        <v>-0.02453016495687731</v>
       </c>
       <c r="D8">
-        <v>0.001811361797168175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003876157789446876</v>
+      </c>
+      <c r="E8">
+        <v>-0.02828775216754582</v>
+      </c>
+      <c r="F8">
+        <v>0.006616108988217714</v>
+      </c>
+      <c r="G8">
+        <v>0.07019605056334489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01677111185688493</v>
+        <v>0.03396833574748085</v>
       </c>
       <c r="C9">
-        <v>0.001250614452605893</v>
+        <v>-0.05075077004508061</v>
       </c>
       <c r="D9">
-        <v>-0.06474528836918235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01645774601864216</v>
+      </c>
+      <c r="E9">
+        <v>-0.02174402121910476</v>
+      </c>
+      <c r="F9">
+        <v>0.006773827257328907</v>
+      </c>
+      <c r="G9">
+        <v>0.1006169493043186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1005393385622275</v>
+        <v>0.09833388161905279</v>
       </c>
       <c r="C10">
-        <v>-0.1586026789588445</v>
+        <v>0.1831590399718426</v>
       </c>
       <c r="D10">
-        <v>0.09400540827102306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0153766585527477</v>
+      </c>
+      <c r="E10">
+        <v>-0.01904241404917813</v>
+      </c>
+      <c r="F10">
+        <v>-0.02253262678729913</v>
+      </c>
+      <c r="G10">
+        <v>0.05827728354664122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1.963593181824519e-05</v>
+        <v>0.03445748355054588</v>
       </c>
       <c r="C11">
-        <v>0.001854614119109798</v>
+        <v>-0.05384968660207391</v>
       </c>
       <c r="D11">
-        <v>-0.05449111587575511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002495237352253474</v>
+      </c>
+      <c r="E11">
+        <v>-0.01817240962547882</v>
+      </c>
+      <c r="F11">
+        <v>0.02082117903581652</v>
+      </c>
+      <c r="G11">
+        <v>0.09087059555844888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.003894628948755064</v>
+        <v>0.0360030081774457</v>
       </c>
       <c r="C12">
-        <v>0.004375623511973935</v>
+        <v>-0.04887572277101279</v>
       </c>
       <c r="D12">
-        <v>-0.04741262426248033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00655889461137183</v>
+      </c>
+      <c r="E12">
+        <v>-0.0095856732615608</v>
+      </c>
+      <c r="F12">
+        <v>0.002089983727550378</v>
+      </c>
+      <c r="G12">
+        <v>0.08305851660872124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0226154338396705</v>
+        <v>0.0156434423786673</v>
       </c>
       <c r="C13">
-        <v>0.004795098824250615</v>
+        <v>-0.04200021451708894</v>
       </c>
       <c r="D13">
-        <v>-0.04039847190300647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02645156289784246</v>
+      </c>
+      <c r="E13">
+        <v>-0.03703341160991889</v>
+      </c>
+      <c r="F13">
+        <v>0.005652304445951282</v>
+      </c>
+      <c r="G13">
+        <v>0.1361694253777759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006755956288270237</v>
+        <v>0.008483539955907957</v>
       </c>
       <c r="C14">
-        <v>0.002428657818145493</v>
+        <v>-0.0294820419383048</v>
       </c>
       <c r="D14">
-        <v>-0.01744520121003797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01012781109471173</v>
+      </c>
+      <c r="E14">
+        <v>-0.00685041963241306</v>
+      </c>
+      <c r="F14">
+        <v>-0.006917720517603142</v>
+      </c>
+      <c r="G14">
+        <v>0.103629549290725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00242850952561915</v>
+        <v>0.03300108067753949</v>
       </c>
       <c r="C16">
-        <v>-0.002162786676779101</v>
+        <v>-0.04692404426808873</v>
       </c>
       <c r="D16">
-        <v>-0.04317886562221966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002001507116757475</v>
+      </c>
+      <c r="E16">
+        <v>-0.01576244480254818</v>
+      </c>
+      <c r="F16">
+        <v>0.002132996250543403</v>
+      </c>
+      <c r="G16">
+        <v>0.09236791405028927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01207269939596559</v>
+        <v>0.02252004423054177</v>
       </c>
       <c r="C19">
-        <v>0.005133306467266141</v>
+        <v>-0.05237287140273368</v>
       </c>
       <c r="D19">
-        <v>-0.04234730283766001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0188476257874244</v>
+      </c>
+      <c r="E19">
+        <v>-0.0768166711226988</v>
+      </c>
+      <c r="F19">
+        <v>0.02089074507935257</v>
+      </c>
+      <c r="G19">
+        <v>0.134617067643024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.006689154669686399</v>
+        <v>0.01508665503869765</v>
       </c>
       <c r="C20">
-        <v>0.009233633062297303</v>
+        <v>-0.04183316469270461</v>
       </c>
       <c r="D20">
-        <v>-0.03703088270310805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01429291234752068</v>
+      </c>
+      <c r="E20">
+        <v>-0.03724545465168046</v>
+      </c>
+      <c r="F20">
+        <v>-0.01174023027409209</v>
+      </c>
+      <c r="G20">
+        <v>0.1111639407738548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01703514937712509</v>
+        <v>0.01282506369166637</v>
       </c>
       <c r="C21">
-        <v>-0.001751152690546472</v>
+        <v>-0.03964830174167142</v>
       </c>
       <c r="D21">
-        <v>-0.02787149149669894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01893402459964058</v>
+      </c>
+      <c r="E21">
+        <v>-0.05081166373229132</v>
+      </c>
+      <c r="F21">
+        <v>0.001567627929118746</v>
+      </c>
+      <c r="G21">
+        <v>0.1307933797323895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001396887484331003</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002162724204599612</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006056535358998626</v>
+      </c>
+      <c r="E22">
+        <v>-0.003584875487232556</v>
+      </c>
+      <c r="F22">
+        <v>0.00176170507703589</v>
+      </c>
+      <c r="G22">
+        <v>0.005727770053366538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001402421630104857</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002279817296783107</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006044654075308497</v>
+      </c>
+      <c r="E23">
+        <v>-0.003572098664249301</v>
+      </c>
+      <c r="F23">
+        <v>0.001767118266330661</v>
+      </c>
+      <c r="G23">
+        <v>0.00561901292008792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0001989298447854517</v>
+        <v>0.02836171385115541</v>
       </c>
       <c r="C24">
-        <v>0.009362291301525258</v>
+        <v>-0.0514533038531916</v>
       </c>
       <c r="D24">
-        <v>-0.04661933742776911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007277754444632221</v>
+      </c>
+      <c r="E24">
+        <v>-0.0128025444991674</v>
+      </c>
+      <c r="F24">
+        <v>0.01242239534158715</v>
+      </c>
+      <c r="G24">
+        <v>0.09176445759512013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01449514003694423</v>
+        <v>0.04253453919425721</v>
       </c>
       <c r="C25">
-        <v>-0.002495680713614724</v>
+        <v>-0.05873041646016406</v>
       </c>
       <c r="D25">
-        <v>-0.05925216372154068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01123314038767766</v>
+      </c>
+      <c r="E25">
+        <v>-0.004248597769695896</v>
+      </c>
+      <c r="F25">
+        <v>0.006369886105667195</v>
+      </c>
+      <c r="G25">
+        <v>0.09994965084207566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02035866459616881</v>
+        <v>0.01374476924545596</v>
       </c>
       <c r="C26">
-        <v>0.009466319103046704</v>
+        <v>-0.0124353672342192</v>
       </c>
       <c r="D26">
-        <v>-0.001526564766766062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02425842326441439</v>
+      </c>
+      <c r="E26">
+        <v>-0.00990165648152886</v>
+      </c>
+      <c r="F26">
+        <v>-0.00859533590330821</v>
+      </c>
+      <c r="G26">
+        <v>0.08247500011154703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1438322108553761</v>
+        <v>0.1241874614234094</v>
       </c>
       <c r="C28">
-        <v>-0.2006965498498019</v>
+        <v>0.2385504074881629</v>
       </c>
       <c r="D28">
-        <v>0.1171696323465543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0064540225461536</v>
+      </c>
+      <c r="E28">
+        <v>-0.007521033104760784</v>
+      </c>
+      <c r="F28">
+        <v>-0.01545049376750832</v>
+      </c>
+      <c r="G28">
+        <v>0.04395643486111868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0108607192888766</v>
+        <v>0.009178895557009285</v>
       </c>
       <c r="C29">
-        <v>-0.004222278688964781</v>
+        <v>-0.02321637087104681</v>
       </c>
       <c r="D29">
-        <v>-0.01890081697170268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009165199835010284</v>
+      </c>
+      <c r="E29">
+        <v>-0.003552244094315034</v>
+      </c>
+      <c r="F29">
+        <v>-0.01470437405942387</v>
+      </c>
+      <c r="G29">
+        <v>0.09589736585848202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01642432776275813</v>
+        <v>0.04130535176044828</v>
       </c>
       <c r="C30">
-        <v>0.01961190701049036</v>
+        <v>-0.07073963078836515</v>
       </c>
       <c r="D30">
-        <v>-0.1036856970969367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0290959648785758</v>
+      </c>
+      <c r="E30">
+        <v>-0.0606433308382849</v>
+      </c>
+      <c r="F30">
+        <v>0.04633587610463707</v>
+      </c>
+      <c r="G30">
+        <v>0.1296140113039458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01943389596850566</v>
+        <v>0.05355551323161422</v>
       </c>
       <c r="C31">
-        <v>-0.01987472562947874</v>
+        <v>-0.0373929496465062</v>
       </c>
       <c r="D31">
-        <v>-0.03331320285142402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003754316335780892</v>
+      </c>
+      <c r="E31">
+        <v>-0.0004423758150301903</v>
+      </c>
+      <c r="F31">
+        <v>-0.04123077265142384</v>
+      </c>
+      <c r="G31">
+        <v>0.1000891180146775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0001685755034322774</v>
+        <v>0.002885078546845533</v>
       </c>
       <c r="C32">
-        <v>-0.0150034332058769</v>
+        <v>-0.0243506041254211</v>
       </c>
       <c r="D32">
-        <v>-0.00573211047930402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002992257007465646</v>
+      </c>
+      <c r="E32">
+        <v>-0.03381621379026254</v>
+      </c>
+      <c r="F32">
+        <v>0.0421709495483605</v>
+      </c>
+      <c r="G32">
+        <v>0.08407607502569407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01119184393525099</v>
+        <v>0.02824522563740344</v>
       </c>
       <c r="C33">
-        <v>0.003669511257481356</v>
+        <v>-0.0506949270657423</v>
       </c>
       <c r="D33">
-        <v>-0.04440901650173593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01572587793378525</v>
+      </c>
+      <c r="E33">
+        <v>-0.04395336330337488</v>
+      </c>
+      <c r="F33">
+        <v>0.01564424230183372</v>
+      </c>
+      <c r="G33">
+        <v>0.1618134630930138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001456963495562498</v>
+        <v>0.03990250811425381</v>
       </c>
       <c r="C34">
-        <v>-0.01200247997365825</v>
+        <v>-0.05989151038126881</v>
       </c>
       <c r="D34">
-        <v>-0.05854669485185899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004472083115209428</v>
+      </c>
+      <c r="E34">
+        <v>-0.008020496360334315</v>
+      </c>
+      <c r="F34">
+        <v>0.02097066575446116</v>
+      </c>
+      <c r="G34">
+        <v>0.09442371305696992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01651395412019187</v>
+        <v>0.01621262761054684</v>
       </c>
       <c r="C36">
-        <v>-0.005457496528164324</v>
+        <v>-0.009869887521224332</v>
       </c>
       <c r="D36">
-        <v>-0.005205680557862274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01251271634982881</v>
+      </c>
+      <c r="E36">
+        <v>-0.008346816429650097</v>
+      </c>
+      <c r="F36">
+        <v>-0.007119977117077348</v>
+      </c>
+      <c r="G36">
+        <v>0.09090042337850553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.007843515715752643</v>
+        <v>0.03126515671322304</v>
       </c>
       <c r="C38">
-        <v>-0.02438713727786148</v>
+        <v>-0.03036811599014259</v>
       </c>
       <c r="D38">
-        <v>-0.04386303180429523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007423002978393566</v>
+      </c>
+      <c r="E38">
+        <v>-0.006873053778210463</v>
+      </c>
+      <c r="F38">
+        <v>-0.01829907804913087</v>
+      </c>
+      <c r="G38">
+        <v>0.08654253526686542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006914864068199902</v>
+        <v>0.03640156357404412</v>
       </c>
       <c r="C39">
-        <v>0.02667810557646968</v>
+        <v>-0.08062827985783856</v>
       </c>
       <c r="D39">
-        <v>-0.1010229660114466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01169731751508298</v>
+      </c>
+      <c r="E39">
+        <v>-0.02909335450735342</v>
+      </c>
+      <c r="F39">
+        <v>0.0237074925491297</v>
+      </c>
+      <c r="G39">
+        <v>0.08808395562511005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01578874119761866</v>
+        <v>0.01389889063348291</v>
       </c>
       <c r="C40">
-        <v>-0.004273128463295629</v>
+        <v>-0.04027314827080636</v>
       </c>
       <c r="D40">
-        <v>-0.037033842378928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01483597035688805</v>
+      </c>
+      <c r="E40">
+        <v>-0.03242513425230407</v>
+      </c>
+      <c r="F40">
+        <v>-0.007550234038985994</v>
+      </c>
+      <c r="G40">
+        <v>0.1173351406886575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0136557351095922</v>
+        <v>0.02069974709837633</v>
       </c>
       <c r="C41">
-        <v>-0.01472727734528463</v>
+        <v>-0.002407720404198399</v>
       </c>
       <c r="D41">
-        <v>0.00927992533700423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004403242379316995</v>
+      </c>
+      <c r="E41">
+        <v>-0.007342447386064048</v>
+      </c>
+      <c r="F41">
+        <v>-0.01543889032326608</v>
+      </c>
+      <c r="G41">
+        <v>0.08526665210315776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.06523792808660941</v>
+        <v>0.00918409833626626</v>
       </c>
       <c r="C42">
-        <v>0.07274091948600704</v>
+        <v>-0.03660068219030192</v>
       </c>
       <c r="D42">
-        <v>-0.1701463965918432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08994829449161021</v>
+      </c>
+      <c r="E42">
+        <v>-0.02041112606340319</v>
+      </c>
+      <c r="F42">
+        <v>-0.04790273509030836</v>
+      </c>
+      <c r="G42">
+        <v>-0.03946401127320074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01497684850926565</v>
+        <v>0.03542857279836589</v>
       </c>
       <c r="C43">
-        <v>-0.01527957103442376</v>
+        <v>-0.01861081259159739</v>
       </c>
       <c r="D43">
-        <v>0.007503316691808972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005868731513125811</v>
+      </c>
+      <c r="E43">
+        <v>-0.02164732194361585</v>
+      </c>
+      <c r="F43">
+        <v>-0.006575676361795266</v>
+      </c>
+      <c r="G43">
+        <v>0.1208730441924413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001738528340330146</v>
+        <v>0.01381122857591862</v>
       </c>
       <c r="C44">
-        <v>0.002869145311564963</v>
+        <v>-0.05914133442866132</v>
       </c>
       <c r="D44">
-        <v>-0.0570041222734046</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006992621776231918</v>
+      </c>
+      <c r="E44">
+        <v>-0.02482526614153589</v>
+      </c>
+      <c r="F44">
+        <v>-0.003397301836217735</v>
+      </c>
+      <c r="G44">
+        <v>0.1127009310588618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01147575900945899</v>
+        <v>0.008149012606206315</v>
       </c>
       <c r="C46">
-        <v>7.391418243553467e-05</v>
+        <v>-0.01463494103051756</v>
       </c>
       <c r="D46">
-        <v>0.003981017842663871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01265619609605704</v>
+      </c>
+      <c r="E46">
+        <v>-0.001707085069407298</v>
+      </c>
+      <c r="F46">
+        <v>-0.01446106145248505</v>
+      </c>
+      <c r="G46">
+        <v>0.1052804018155301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01342223163535493</v>
+        <v>0.07737695493206913</v>
       </c>
       <c r="C47">
-        <v>-0.02233476280357108</v>
+        <v>-0.06873845774158442</v>
       </c>
       <c r="D47">
-        <v>-0.07368281286477753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00479324783787917</v>
+      </c>
+      <c r="E47">
+        <v>0.005910718787569903</v>
+      </c>
+      <c r="F47">
+        <v>-0.05391205347126844</v>
+      </c>
+      <c r="G47">
+        <v>0.08520219479225179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008977159365590038</v>
+        <v>0.01891488004544997</v>
       </c>
       <c r="C48">
-        <v>-0.01108748515755242</v>
+        <v>-0.01311486221508131</v>
       </c>
       <c r="D48">
-        <v>-0.01892245144015598</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0022381809561732</v>
+      </c>
+      <c r="E48">
+        <v>-0.004760701450590371</v>
+      </c>
+      <c r="F48">
+        <v>-0.01854132760393899</v>
+      </c>
+      <c r="G48">
+        <v>0.09701530647376796</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02144439279751001</v>
+        <v>0.07584528354178821</v>
       </c>
       <c r="C50">
-        <v>-0.03109863006312097</v>
+        <v>-0.07173363261775034</v>
       </c>
       <c r="D50">
-        <v>-0.07154195657034715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002248267956883454</v>
+      </c>
+      <c r="E50">
+        <v>0.00295112670222063</v>
+      </c>
+      <c r="F50">
+        <v>-0.05683683550273691</v>
+      </c>
+      <c r="G50">
+        <v>0.09361890712348672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008571523516317216</v>
+        <v>0.01478418751818772</v>
       </c>
       <c r="C51">
-        <v>-0.00216968806731175</v>
+        <v>-0.03610071592722786</v>
       </c>
       <c r="D51">
-        <v>-0.01875865480783788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01067119907203367</v>
+      </c>
+      <c r="E51">
+        <v>-0.02587339309346678</v>
+      </c>
+      <c r="F51">
+        <v>0.02543114859767859</v>
+      </c>
+      <c r="G51">
+        <v>0.123132120373932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02335012164892893</v>
+        <v>0.08220399964034926</v>
       </c>
       <c r="C53">
-        <v>-0.0326926995532402</v>
+        <v>-0.08531873713416024</v>
       </c>
       <c r="D53">
-        <v>-0.1321761171933439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003458523215505433</v>
+      </c>
+      <c r="E53">
+        <v>0.02541230414571563</v>
+      </c>
+      <c r="F53">
+        <v>-0.06389712030127682</v>
+      </c>
+      <c r="G53">
+        <v>0.09398301656391868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01283165753675439</v>
+        <v>0.03212901676515091</v>
       </c>
       <c r="C54">
-        <v>-0.02489890423181421</v>
+        <v>-0.0188313137976985</v>
       </c>
       <c r="D54">
-        <v>0.00404395458291303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001499480538617308</v>
+      </c>
+      <c r="E54">
+        <v>-0.01777605368796919</v>
+      </c>
+      <c r="F54">
+        <v>-0.005149077226980696</v>
+      </c>
+      <c r="G54">
+        <v>0.1074465342468037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01293135643724501</v>
+        <v>0.07247969688869517</v>
       </c>
       <c r="C55">
-        <v>-0.01945792775575315</v>
+        <v>-0.0684329136996206</v>
       </c>
       <c r="D55">
-        <v>-0.1051379688072449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0049376091546715</v>
+      </c>
+      <c r="E55">
+        <v>0.02294961037126128</v>
+      </c>
+      <c r="F55">
+        <v>-0.06378212134688815</v>
+      </c>
+      <c r="G55">
+        <v>0.07150622727244201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0239315621307927</v>
+        <v>0.1366994238006764</v>
       </c>
       <c r="C56">
-        <v>-0.04019903866005048</v>
+        <v>-0.1072621806217781</v>
       </c>
       <c r="D56">
-        <v>-0.1624565239185533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01237274380634519</v>
+      </c>
+      <c r="E56">
+        <v>0.03268410269375866</v>
+      </c>
+      <c r="F56">
+        <v>-0.08073400468394429</v>
+      </c>
+      <c r="G56">
+        <v>0.04506429711300799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02242746477426494</v>
+        <v>0.005430767425342462</v>
       </c>
       <c r="C57">
-        <v>0.007862649783801306</v>
+        <v>-0.007234967987580206</v>
       </c>
       <c r="D57">
-        <v>-0.03524036475013582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0232007203869918</v>
+      </c>
+      <c r="E57">
+        <v>-0.02551119509294808</v>
+      </c>
+      <c r="F57">
+        <v>0.009881103925669078</v>
+      </c>
+      <c r="G57">
+        <v>0.02557950718572393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01595231354232333</v>
+        <v>0.05293471286577395</v>
       </c>
       <c r="C58">
-        <v>-0.01967288029255349</v>
+        <v>-0.04787385254919148</v>
       </c>
       <c r="D58">
-        <v>-0.1387926748697976</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02030994581462313</v>
+      </c>
+      <c r="E58">
+        <v>-0.9126543869669506</v>
+      </c>
+      <c r="F58">
+        <v>-0.2747263259347622</v>
+      </c>
+      <c r="G58">
+        <v>-0.222720464448111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1544885151778305</v>
+        <v>0.159659966945838</v>
       </c>
       <c r="C59">
-        <v>-0.2244581524207203</v>
+        <v>0.2048687512333776</v>
       </c>
       <c r="D59">
-        <v>0.09964135530600352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01169123078636599</v>
+      </c>
+      <c r="E59">
+        <v>-0.01918764827476586</v>
+      </c>
+      <c r="F59">
+        <v>-0.003536258943922157</v>
+      </c>
+      <c r="G59">
+        <v>0.03860494582455396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1258380694055724</v>
+        <v>0.2886195398121558</v>
       </c>
       <c r="C60">
-        <v>-0.1490340417186984</v>
+        <v>-0.1078883792864943</v>
       </c>
       <c r="D60">
-        <v>-0.1478634513637124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01142863678917199</v>
+      </c>
+      <c r="E60">
+        <v>0.0003066482611930307</v>
+      </c>
+      <c r="F60">
+        <v>0.3366074405318294</v>
+      </c>
+      <c r="G60">
+        <v>-0.1644930292537647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001455961769100021</v>
+        <v>0.0392701111698277</v>
       </c>
       <c r="C61">
-        <v>0.004065702485661027</v>
+        <v>-0.06651345706286221</v>
       </c>
       <c r="D61">
-        <v>-0.07700501506796578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005435194231503847</v>
+      </c>
+      <c r="E61">
+        <v>-0.02356608050546941</v>
+      </c>
+      <c r="F61">
+        <v>0.01435886086593203</v>
+      </c>
+      <c r="G61">
+        <v>0.0955353050333414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006599804378969514</v>
+        <v>0.01565711639667543</v>
       </c>
       <c r="C63">
-        <v>0.004090374937801783</v>
+        <v>-0.03062692838223857</v>
       </c>
       <c r="D63">
-        <v>-0.02483500064122718</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008583293050558384</v>
+      </c>
+      <c r="E63">
+        <v>-0.003523529582489871</v>
+      </c>
+      <c r="F63">
+        <v>-0.01915721853353351</v>
+      </c>
+      <c r="G63">
+        <v>0.09402344629495811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02031137964409784</v>
+        <v>0.04902689272249887</v>
       </c>
       <c r="C64">
-        <v>-0.01962969073083757</v>
+        <v>-0.0472978577737511</v>
       </c>
       <c r="D64">
-        <v>-0.06420062981074565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006512712408378124</v>
+      </c>
+      <c r="E64">
+        <v>-0.008714368163368838</v>
+      </c>
+      <c r="F64">
+        <v>0.007457317396670801</v>
+      </c>
+      <c r="G64">
+        <v>0.103268848815279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02153087319455416</v>
+        <v>0.07523291038386182</v>
       </c>
       <c r="C65">
-        <v>-0.0001488485192426031</v>
+        <v>-0.05815138944824341</v>
       </c>
       <c r="D65">
-        <v>-0.1146378567226366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0166385588149706</v>
+      </c>
+      <c r="E65">
+        <v>-0.03896215437427324</v>
+      </c>
+      <c r="F65">
+        <v>0.03025036401072908</v>
+      </c>
+      <c r="G65">
+        <v>0.03959489692400045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005533790573743123</v>
+        <v>0.05130692646765768</v>
       </c>
       <c r="C66">
-        <v>0.02410908584335057</v>
+        <v>-0.1074431491380728</v>
       </c>
       <c r="D66">
-        <v>-0.1371405436769427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01157518991366871</v>
+      </c>
+      <c r="E66">
+        <v>-0.04010127734819133</v>
+      </c>
+      <c r="F66">
+        <v>0.0356255160254252</v>
+      </c>
+      <c r="G66">
+        <v>0.1030975645062932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0218547426665836</v>
+        <v>0.05415242249068798</v>
       </c>
       <c r="C67">
-        <v>-0.03870634583128688</v>
+        <v>-0.03363641628045777</v>
       </c>
       <c r="D67">
-        <v>-0.06275459752702561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005939418557719387</v>
+      </c>
+      <c r="E67">
+        <v>0.00135901474462539</v>
+      </c>
+      <c r="F67">
+        <v>-0.01701902045394612</v>
+      </c>
+      <c r="G67">
+        <v>0.07511393571734629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1687722017807531</v>
+        <v>0.1552812257297559</v>
       </c>
       <c r="C68">
-        <v>-0.2120692379706636</v>
+        <v>0.2686506080528524</v>
       </c>
       <c r="D68">
-        <v>0.1435620046616902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005634683846046915</v>
+      </c>
+      <c r="E68">
+        <v>-0.01304246211819714</v>
+      </c>
+      <c r="F68">
+        <v>-0.0369994832618519</v>
+      </c>
+      <c r="G68">
+        <v>0.02896123946795891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01736911716436088</v>
+        <v>0.08301348482945679</v>
       </c>
       <c r="C69">
-        <v>-0.03466543573720369</v>
+        <v>-0.07013472395797811</v>
       </c>
       <c r="D69">
-        <v>-0.08052819001040273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008852823763021218</v>
+      </c>
+      <c r="E69">
+        <v>0.02090917715650522</v>
+      </c>
+      <c r="F69">
+        <v>-0.03653865708061817</v>
+      </c>
+      <c r="G69">
+        <v>0.1029434051274496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1340031805510672</v>
+        <v>0.1403924760272441</v>
       </c>
       <c r="C71">
-        <v>-0.1789436793116427</v>
+        <v>0.2298488961935537</v>
       </c>
       <c r="D71">
-        <v>0.100237242945372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002841712644229086</v>
+      </c>
+      <c r="E71">
+        <v>-0.03373421767362739</v>
+      </c>
+      <c r="F71">
+        <v>-0.02253358802540806</v>
+      </c>
+      <c r="G71">
+        <v>0.06792012892453074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.005618861678842524</v>
+        <v>0.08622552192388995</v>
       </c>
       <c r="C72">
-        <v>-0.01770350392486392</v>
+        <v>-0.06762167201290196</v>
       </c>
       <c r="D72">
-        <v>-0.1023575627766226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008406628762578307</v>
+      </c>
+      <c r="E72">
+        <v>0.007062235779583672</v>
+      </c>
+      <c r="F72">
+        <v>0.04013813362884024</v>
+      </c>
+      <c r="G72">
+        <v>0.09000986340269553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1514492702086169</v>
+        <v>0.376663389905959</v>
       </c>
       <c r="C73">
-        <v>-0.1681560257102717</v>
+        <v>-0.11581911167707</v>
       </c>
       <c r="D73">
-        <v>-0.2701483000787108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0204299751362364</v>
+      </c>
+      <c r="E73">
+        <v>-0.08058097543273048</v>
+      </c>
+      <c r="F73">
+        <v>0.5749208619819574</v>
+      </c>
+      <c r="G73">
+        <v>-0.2982662333326221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.02472840626088091</v>
+        <v>0.1051173617999645</v>
       </c>
       <c r="C74">
-        <v>-0.0434708341039008</v>
+        <v>-0.1091562923848404</v>
       </c>
       <c r="D74">
-        <v>-0.1756849026305045</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009478033346151001</v>
+      </c>
+      <c r="E74">
+        <v>0.008413209593142524</v>
+      </c>
+      <c r="F74">
+        <v>-0.06938946572441669</v>
+      </c>
+      <c r="G74">
+        <v>0.08357074969367362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.06089823131471115</v>
+        <v>0.2475018220301386</v>
       </c>
       <c r="C75">
-        <v>-0.1029095390138355</v>
+        <v>-0.151185527842086</v>
       </c>
       <c r="D75">
-        <v>-0.2994035450415602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03058650784198025</v>
+      </c>
+      <c r="E75">
+        <v>0.06995028627410416</v>
+      </c>
+      <c r="F75">
+        <v>-0.1681781677225316</v>
+      </c>
+      <c r="G75">
+        <v>-0.01461015390310847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02755602891932758</v>
+        <v>0.1190891585181579</v>
       </c>
       <c r="C76">
-        <v>-0.05781490917789688</v>
+        <v>-0.1094098103344374</v>
       </c>
       <c r="D76">
-        <v>-0.2104425058102675</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01805962306173313</v>
+      </c>
+      <c r="E76">
+        <v>0.02784134270412399</v>
+      </c>
+      <c r="F76">
+        <v>-0.1070805744062445</v>
+      </c>
+      <c r="G76">
+        <v>0.0630145958614703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01756684909590947</v>
+        <v>0.06871280527419653</v>
       </c>
       <c r="C77">
-        <v>-0.0056963827451021</v>
+        <v>-0.05927132814375235</v>
       </c>
       <c r="D77">
-        <v>-0.07456924723470686</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01098297084223827</v>
+      </c>
+      <c r="E77">
+        <v>-0.04793176112379731</v>
+      </c>
+      <c r="F77">
+        <v>0.01005605261569841</v>
+      </c>
+      <c r="G77">
+        <v>0.06729990704975512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007362758954431835</v>
+        <v>0.04348296998683419</v>
       </c>
       <c r="C78">
-        <v>-0.003398394442341222</v>
+        <v>-0.04954468617210431</v>
       </c>
       <c r="D78">
-        <v>-0.06505178755661584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005833724894326649</v>
+      </c>
+      <c r="E78">
+        <v>-0.02819188828206034</v>
+      </c>
+      <c r="F78">
+        <v>0.03732804889059593</v>
+      </c>
+      <c r="G78">
+        <v>0.1043329788392506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0001063725239690188</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>7.173743127342375e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-1.823717825067004e-05</v>
+      </c>
+      <c r="E79">
+        <v>-0.0003149290948167631</v>
+      </c>
+      <c r="F79">
+        <v>0.0001651308625816172</v>
+      </c>
+      <c r="G79">
+        <v>0.0007007742848117221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02619054825045891</v>
+        <v>0.04347385725777813</v>
       </c>
       <c r="C80">
-        <v>-0.0165132816899041</v>
+        <v>-0.05146865065473338</v>
       </c>
       <c r="D80">
-        <v>-0.08484735735952809</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01323723116924341</v>
+      </c>
+      <c r="E80">
+        <v>-0.02515632407386437</v>
+      </c>
+      <c r="F80">
+        <v>0.01425918565986208</v>
+      </c>
+      <c r="G80">
+        <v>0.05414987869621829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03769880212827561</v>
+        <v>0.137100338945609</v>
       </c>
       <c r="C81">
-        <v>-0.06146740563065254</v>
+        <v>-0.09565901780108542</v>
       </c>
       <c r="D81">
-        <v>-0.1704750703014019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01474453093426744</v>
+      </c>
+      <c r="E81">
+        <v>0.03504209423741655</v>
+      </c>
+      <c r="F81">
+        <v>-0.1266377908466292</v>
+      </c>
+      <c r="G81">
+        <v>0.02555876272032418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1333195426098829</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0783484396555249</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009303734560158592</v>
+      </c>
+      <c r="E82">
+        <v>0.1009884916813092</v>
+      </c>
+      <c r="F82">
+        <v>-0.04986589198155472</v>
+      </c>
+      <c r="G82">
+        <v>0.07223171014156475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01418613447667311</v>
+        <v>0.03622024014018657</v>
       </c>
       <c r="C83">
-        <v>-0.01284930772296254</v>
+        <v>-0.02916887194368913</v>
       </c>
       <c r="D83">
-        <v>-0.03331051333588429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005908838046796254</v>
+      </c>
+      <c r="E83">
+        <v>-0.03121601698749422</v>
+      </c>
+      <c r="F83">
+        <v>0.03026683281639929</v>
+      </c>
+      <c r="G83">
+        <v>0.0586084254278399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.05851715652440086</v>
+        <v>0.2129161719104863</v>
       </c>
       <c r="C85">
-        <v>-0.07854983480649264</v>
+        <v>-0.1469251227274159</v>
       </c>
       <c r="D85">
-        <v>-0.2796857778046425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01722512188956953</v>
+      </c>
+      <c r="E85">
+        <v>0.1032432234617761</v>
+      </c>
+      <c r="F85">
+        <v>-0.121583305687384</v>
+      </c>
+      <c r="G85">
+        <v>-0.06051021549018289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01458544492820365</v>
+        <v>0.01448140202077194</v>
       </c>
       <c r="C86">
-        <v>-0.01106245866316223</v>
+        <v>-0.02536329877238336</v>
       </c>
       <c r="D86">
-        <v>-0.04920090563097221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01145194888029175</v>
+      </c>
+      <c r="E86">
+        <v>-0.05016028199059178</v>
+      </c>
+      <c r="F86">
+        <v>0.01848791948379186</v>
+      </c>
+      <c r="G86">
+        <v>0.1880312337207914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.003348197978124045</v>
+        <v>0.02149061852358766</v>
       </c>
       <c r="C87">
-        <v>0.01035561195425355</v>
+        <v>-0.02242197096919393</v>
       </c>
       <c r="D87">
-        <v>-0.04798071321376523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01183552536340819</v>
+      </c>
+      <c r="E87">
+        <v>-0.09305353554643431</v>
+      </c>
+      <c r="F87">
+        <v>0.00846682951761555</v>
+      </c>
+      <c r="G87">
+        <v>0.1221283577577812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03675664475670128</v>
+        <v>0.09465423152409258</v>
       </c>
       <c r="C88">
-        <v>-0.0123530954553384</v>
+        <v>-0.06876740886959139</v>
       </c>
       <c r="D88">
-        <v>-0.05512182472505045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0220975396763649</v>
+      </c>
+      <c r="E88">
+        <v>0.00207236198755217</v>
+      </c>
+      <c r="F88">
+        <v>-0.0196836366715029</v>
+      </c>
+      <c r="G88">
+        <v>0.09694520548470824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2451036423663606</v>
+        <v>0.2321949001927864</v>
       </c>
       <c r="C89">
-        <v>-0.3217801678834822</v>
+        <v>0.3690392803345194</v>
       </c>
       <c r="D89">
-        <v>0.1759073817943478</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001883923166264136</v>
+      </c>
+      <c r="E89">
+        <v>0.01662340845397974</v>
+      </c>
+      <c r="F89">
+        <v>-0.02575067458974455</v>
+      </c>
+      <c r="G89">
+        <v>0.06936151112419978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.20083240630757</v>
+        <v>0.2076005776845904</v>
       </c>
       <c r="C90">
-        <v>-0.2693404507778943</v>
+        <v>0.3185435312363538</v>
       </c>
       <c r="D90">
-        <v>0.1642809138135105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004361661685448595</v>
+      </c>
+      <c r="E90">
+        <v>-0.001648023134422885</v>
+      </c>
+      <c r="F90">
+        <v>-0.04703520608525232</v>
+      </c>
+      <c r="G90">
+        <v>0.05057610239394601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.05114967397820595</v>
+        <v>0.1856902812791759</v>
       </c>
       <c r="C91">
-        <v>-0.08992149332395248</v>
+        <v>-0.1421465653656917</v>
       </c>
       <c r="D91">
-        <v>-0.230162438283602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02170559646576386</v>
+      </c>
+      <c r="E91">
+        <v>0.06345114044921438</v>
+      </c>
+      <c r="F91">
+        <v>-0.1413846407362937</v>
+      </c>
+      <c r="G91">
+        <v>0.03513618740517935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1592665300503182</v>
+        <v>0.1981718895190378</v>
       </c>
       <c r="C92">
-        <v>-0.2639172591996169</v>
+        <v>0.2571333154940181</v>
       </c>
       <c r="D92">
-        <v>0.06404446834825035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03777315847454298</v>
+      </c>
+      <c r="E92">
+        <v>-0.04435256760069952</v>
+      </c>
+      <c r="F92">
+        <v>-0.05804144452968075</v>
+      </c>
+      <c r="G92">
+        <v>0.1161896655574419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2091498319009028</v>
+        <v>0.2308645970314401</v>
       </c>
       <c r="C93">
-        <v>-0.2893829874716952</v>
+        <v>0.3146272122541338</v>
       </c>
       <c r="D93">
-        <v>0.1299872578539475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01122224680550448</v>
+      </c>
+      <c r="E93">
+        <v>-0.007031826513921954</v>
+      </c>
+      <c r="F93">
+        <v>-0.04217116443029242</v>
+      </c>
+      <c r="G93">
+        <v>0.05960075593291202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.09677727089868519</v>
+        <v>0.3193990934106973</v>
       </c>
       <c r="C94">
-        <v>-0.1193508575809648</v>
+        <v>-0.178248682526526</v>
       </c>
       <c r="D94">
-        <v>-0.3047093116597633</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01809306947498952</v>
+      </c>
+      <c r="E94">
+        <v>0.2164150277015645</v>
+      </c>
+      <c r="F94">
+        <v>-0.477730458740838</v>
+      </c>
+      <c r="G94">
+        <v>-0.4197968140819568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00467005826309544</v>
+        <v>0.1015807379773414</v>
       </c>
       <c r="C95">
-        <v>-0.007235156792160261</v>
+        <v>-0.08828952133282825</v>
       </c>
       <c r="D95">
-        <v>-0.1219405693526222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01016204042490804</v>
+      </c>
+      <c r="E95">
+        <v>-0.08298809971350662</v>
+      </c>
+      <c r="F95">
+        <v>0.2053224328246638</v>
+      </c>
+      <c r="G95">
+        <v>-0.01349146846065303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.08453136840698289</v>
+        <v>0.1956219996633586</v>
       </c>
       <c r="C98">
-        <v>-0.138031586446507</v>
+        <v>-0.04322031014647582</v>
       </c>
       <c r="D98">
-        <v>-0.1457134028217605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01363645454679994</v>
+      </c>
+      <c r="E98">
+        <v>-0.07013028773157759</v>
+      </c>
+      <c r="F98">
+        <v>0.2352791068620337</v>
+      </c>
+      <c r="G98">
+        <v>-0.01542248178627631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01061501409070865</v>
+        <v>0.008963005147734222</v>
       </c>
       <c r="C101">
-        <v>-0.004144976689384836</v>
+        <v>-0.02324649585421614</v>
       </c>
       <c r="D101">
-        <v>-0.01887042695675456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00900871785075192</v>
+      </c>
+      <c r="E101">
+        <v>-0.003375898394302913</v>
+      </c>
+      <c r="F101">
+        <v>-0.01566161169199155</v>
+      </c>
+      <c r="G101">
+        <v>0.09484019847150817</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.03738197399579597</v>
+        <v>0.1156928438801506</v>
       </c>
       <c r="C102">
-        <v>-0.03867982041607557</v>
+        <v>-0.08394819224372976</v>
       </c>
       <c r="D102">
-        <v>-0.1328106985579231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001165664943195794</v>
+      </c>
+      <c r="E102">
+        <v>0.03546903605152828</v>
+      </c>
+      <c r="F102">
+        <v>-0.03936258554627194</v>
+      </c>
+      <c r="G102">
+        <v>0.01635930966089412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.801636964292178</v>
+        <v>0.02104036648057814</v>
       </c>
       <c r="C104">
-        <v>0.5819646174967602</v>
+        <v>0.03053567994923982</v>
       </c>
       <c r="D104">
-        <v>0.03611958041547346</v>
+        <v>-0.9878785248869174</v>
+      </c>
+      <c r="E104">
+        <v>0.04856834590391764</v>
+      </c>
+      <c r="F104">
+        <v>-0.03384922294608131</v>
+      </c>
+      <c r="G104">
+        <v>-0.03675351310551652</v>
       </c>
     </row>
   </sheetData>
